--- a/kyivbot/resources/streets.xlsx
+++ b/kyivbot/resources/streets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790EEFF-7FAA-402B-A749-DFBFB9327EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBFF02-8618-4AE0-B478-8228E13E5885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5834,7 +5834,7 @@
   <dimension ref="A1:B1828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kyivbot/resources/streets.xlsx
+++ b/kyivbot/resources/streets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBFF02-8618-4AE0-B478-8228E13E5885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE4F99-2857-477E-97AB-D4BFC8DF20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5533,7 +5533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -5550,7 +5550,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5833,13 +5838,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1828"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="E494" sqref="E494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
